--- a/Pin mapping for spi mode.xlsx
+++ b/Pin mapping for spi mode.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +601,9 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -612,6 +615,9 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -623,6 +629,9 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -634,6 +643,9 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -644,6 +656,9 @@
       </c>
       <c r="D16" t="s">
         <v>24</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
